--- a/Cucumber/TestData/carwale.xlsx
+++ b/Cucumber/TestData/carwale.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>City</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Used 2019 Hyundai Creta SX 1.6 (O) Petrol in Delhi</t>
+  </si>
+  <si>
+    <t>1.6 Base Petrol</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
